--- a/data-collection/Manawatu GymSports WAG Opens 2025.xlsx
+++ b/data-collection/Manawatu GymSports WAG Opens 2025.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -12384,7 +12384,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -12610,7 +12610,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -13062,7 +13062,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13926,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -14039,7 +14039,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -14152,7 +14152,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -14378,7 +14378,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -14717,7 +14717,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -15167,7 +15167,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -15280,7 +15280,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -15843,7 +15843,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -15956,7 +15956,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -16069,7 +16069,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -16295,7 +16295,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -16408,7 +16408,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -16521,7 +16521,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -16747,7 +16747,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -17086,7 +17086,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -17199,7 +17199,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -17312,7 +17312,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -17764,7 +17764,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -17990,7 +17990,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -18289,7 +18289,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -18400,7 +18400,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -18511,7 +18511,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -18622,7 +18622,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -18733,7 +18733,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -18955,7 +18955,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -19066,7 +19066,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -19177,7 +19177,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -19288,7 +19288,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -19399,7 +19399,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -19510,7 +19510,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -19698,7 +19698,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -19809,7 +19809,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -19920,7 +19920,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -20142,7 +20142,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -20330,7 +20330,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -20443,7 +20443,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -20554,7 +20554,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -20742,7 +20742,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -20964,7 +20964,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -21186,7 +21186,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -21297,7 +21297,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -21519,7 +21519,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -21630,7 +21630,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -21741,7 +21741,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -21852,7 +21852,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -21963,7 +21963,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -22074,7 +22074,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -22185,7 +22185,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -22296,7 +22296,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -22407,7 +22407,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -22518,7 +22518,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -22629,7 +22629,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -22962,7 +22962,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -23073,7 +23073,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -23184,7 +23184,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -23295,7 +23295,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -23406,7 +23406,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -23517,7 +23517,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -23628,7 +23628,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -23739,7 +23739,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -23850,7 +23850,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -24072,7 +24072,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -24294,7 +24294,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -24405,7 +24405,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -24516,7 +24516,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -24627,7 +24627,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -24849,7 +24849,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -24960,7 +24960,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -25071,7 +25071,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -25182,7 +25182,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -25293,7 +25293,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -25515,7 +25515,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -25626,7 +25626,7 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -25737,7 +25737,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -25959,7 +25959,7 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -26070,7 +26070,7 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -26181,7 +26181,7 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -26292,7 +26292,7 @@
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -26403,7 +26403,7 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -26514,7 +26514,7 @@
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -26736,7 +26736,7 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -26847,7 +26847,7 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -27035,7 +27035,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -27148,7 +27148,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -27261,7 +27261,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -27374,7 +27374,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -27487,7 +27487,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -27600,7 +27600,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -27713,7 +27713,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -27939,7 +27939,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -28052,7 +28052,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -28165,7 +28165,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -28276,7 +28276,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -28389,7 +28389,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -28615,7 +28615,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -28726,7 +28726,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -28839,7 +28839,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -28952,7 +28952,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -29065,7 +29065,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -29178,7 +29178,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -29291,7 +29291,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -29404,7 +29404,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -29517,7 +29517,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -29630,7 +29630,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -29743,7 +29743,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -29856,7 +29856,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -29969,7 +29969,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -30082,7 +30082,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -30308,7 +30308,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -30421,7 +30421,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -30534,7 +30534,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -30647,7 +30647,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -30760,7 +30760,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -30873,7 +30873,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -31061,7 +31061,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -31174,7 +31174,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -31287,7 +31287,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -31400,7 +31400,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -31513,7 +31513,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -31626,7 +31626,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -31739,7 +31739,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -31852,7 +31852,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -31965,7 +31965,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -32078,7 +32078,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -32191,7 +32191,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -32302,7 +32302,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -32415,7 +32415,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -32528,7 +32528,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -32752,7 +32752,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -32865,7 +32865,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -32976,7 +32976,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -33089,7 +33089,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -33202,7 +33202,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -33428,7 +33428,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -33541,7 +33541,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -33654,7 +33654,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -33767,7 +33767,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -33880,7 +33880,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -33993,7 +33993,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -34106,7 +34106,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -34219,7 +34219,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -34445,7 +34445,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -34558,7 +34558,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -34784,7 +34784,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -34897,7 +34897,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -35010,7 +35010,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -35123,7 +35123,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -35236,7 +35236,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -35424,7 +35424,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -35535,7 +35535,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -35646,7 +35646,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -35757,7 +35757,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -35868,7 +35868,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -35979,7 +35979,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -36090,7 +36090,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -36201,7 +36201,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -36312,7 +36312,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -36423,7 +36423,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -36534,7 +36534,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -36645,7 +36645,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -36756,7 +36756,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -36944,7 +36944,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -37055,7 +37055,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -37166,7 +37166,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -37277,7 +37277,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -37388,7 +37388,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -37499,7 +37499,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -37610,7 +37610,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -37721,7 +37721,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -37832,7 +37832,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -37943,7 +37943,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -38054,7 +38054,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -38165,7 +38165,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -38276,7 +38276,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -38387,7 +38387,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -38498,7 +38498,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -38609,7 +38609,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -38720,7 +38720,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -38831,7 +38831,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -38942,7 +38942,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -39053,7 +39053,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -39164,7 +39164,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -39275,7 +39275,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -39386,7 +39386,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -39497,7 +39497,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -39608,7 +39608,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -39719,7 +39719,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -39830,7 +39830,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -39941,7 +39941,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -40052,7 +40052,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -40163,7 +40163,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -40274,7 +40274,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -40385,7 +40385,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -40496,7 +40496,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -40607,7 +40607,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -40718,7 +40718,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -40829,7 +40829,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -41017,7 +41017,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -41128,7 +41128,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -41239,7 +41239,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -41350,7 +41350,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -41461,7 +41461,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -41649,7 +41649,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -41762,7 +41762,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -42063,7 +42063,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -42174,7 +42174,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -42285,7 +42285,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -42507,7 +42507,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -42618,7 +42618,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -42729,7 +42729,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -42840,7 +42840,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -42951,7 +42951,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -43062,7 +43062,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -43173,7 +43173,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -43284,7 +43284,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -43506,7 +43506,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -43617,7 +43617,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -43728,7 +43728,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -43839,7 +43839,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -43950,7 +43950,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -44061,7 +44061,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -44172,7 +44172,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -44283,7 +44283,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -44394,7 +44394,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -44505,7 +44505,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -44616,7 +44616,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -44727,7 +44727,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -44838,7 +44838,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -44949,7 +44949,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -45171,7 +45171,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -45282,7 +45282,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -45393,7 +45393,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -45504,7 +45504,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -45615,7 +45615,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -45726,7 +45726,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -45837,7 +45837,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -45948,7 +45948,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -46136,7 +46136,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -46247,7 +46247,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -46358,7 +46358,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -46469,7 +46469,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -46580,7 +46580,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -46691,7 +46691,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -46802,7 +46802,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -46913,7 +46913,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -47024,7 +47024,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -47135,7 +47135,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -47246,7 +47246,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -47357,7 +47357,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -47468,7 +47468,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -47579,7 +47579,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -47690,7 +47690,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -47801,7 +47801,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -47912,7 +47912,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -48023,7 +48023,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -48134,7 +48134,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -48245,7 +48245,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -48356,7 +48356,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -48467,7 +48467,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -48578,7 +48578,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -48689,7 +48689,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -48800,7 +48800,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -48911,7 +48911,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -49022,7 +49022,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -49133,7 +49133,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -49244,7 +49244,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -49355,7 +49355,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -49466,7 +49466,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -49577,7 +49577,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -49688,7 +49688,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -49799,7 +49799,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -49910,7 +49910,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -50021,7 +50021,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -50132,7 +50132,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -50243,7 +50243,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -50354,7 +50354,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -50465,7 +50465,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -50576,7 +50576,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -50687,7 +50687,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -50798,7 +50798,7 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -50909,7 +50909,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -51020,7 +51020,7 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -51131,7 +51131,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -51242,7 +51242,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -51353,7 +51353,7 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -51541,7 +51541,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -51652,7 +51652,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -51763,7 +51763,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -51874,7 +51874,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -51985,7 +51985,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -52096,7 +52096,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -52207,7 +52207,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -52318,7 +52318,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -52429,7 +52429,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -52540,7 +52540,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -52651,7 +52651,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -52762,7 +52762,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -52873,7 +52873,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -52984,7 +52984,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -53095,7 +53095,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -53206,7 +53206,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -53317,7 +53317,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -53428,7 +53428,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -53539,7 +53539,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -53650,7 +53650,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -53761,7 +53761,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -53872,7 +53872,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -53983,7 +53983,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -54094,7 +54094,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -54205,7 +54205,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -54316,7 +54316,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -54427,7 +54427,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -54538,7 +54538,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -54649,7 +54649,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -54760,7 +54760,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -54871,7 +54871,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -54982,7 +54982,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -55093,7 +55093,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -55204,7 +55204,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -55392,7 +55392,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -55503,7 +55503,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -55614,7 +55614,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -55725,7 +55725,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -55836,7 +55836,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -55947,7 +55947,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -56058,7 +56058,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -56169,7 +56169,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -56280,7 +56280,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -56391,7 +56391,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -56502,7 +56502,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -56613,7 +56613,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -56724,7 +56724,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -56835,7 +56835,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -56946,7 +56946,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -57057,7 +57057,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -57168,7 +57168,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -57279,7 +57279,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -57390,7 +57390,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -57501,7 +57501,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -57612,7 +57612,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -57723,7 +57723,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -57834,7 +57834,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -57945,7 +57945,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -58056,7 +58056,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -58167,7 +58167,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -58278,7 +58278,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -58389,7 +58389,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -58500,7 +58500,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -58611,7 +58611,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -58722,7 +58722,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -58833,7 +58833,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -58944,7 +58944,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -59055,7 +59055,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -59166,7 +59166,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -59277,7 +59277,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -59499,7 +59499,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -59610,7 +59610,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -59721,7 +59721,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -59909,7 +59909,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -60020,7 +60020,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -60131,7 +60131,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -60242,7 +60242,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -60353,7 +60353,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -60464,7 +60464,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -60575,7 +60575,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -60686,7 +60686,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -60797,7 +60797,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -60908,7 +60908,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -61019,7 +61019,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -61130,7 +61130,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -61241,7 +61241,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -61352,7 +61352,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -61463,7 +61463,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -61574,7 +61574,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -61685,7 +61685,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -61796,7 +61796,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -61907,7 +61907,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -62018,7 +62018,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -62129,7 +62129,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -62240,7 +62240,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -62351,7 +62351,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -62462,7 +62462,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -62573,7 +62573,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -62684,7 +62684,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -62795,7 +62795,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -62906,7 +62906,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -63017,7 +63017,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -63128,7 +63128,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -63239,7 +63239,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -63350,7 +63350,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -63461,7 +63461,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -63572,7 +63572,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -63683,7 +63683,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -63794,7 +63794,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -63905,7 +63905,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -64016,7 +64016,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -64127,7 +64127,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -64315,7 +64315,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -64426,7 +64426,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -64537,7 +64537,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -64648,7 +64648,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -64759,7 +64759,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -64870,7 +64870,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -64981,7 +64981,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -65092,7 +65092,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -65203,7 +65203,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -65314,7 +65314,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -65425,7 +65425,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -65536,7 +65536,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -65647,7 +65647,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -65758,7 +65758,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -65869,7 +65869,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -65980,7 +65980,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -66091,7 +66091,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -66202,7 +66202,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -66313,7 +66313,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -66424,7 +66424,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -66535,7 +66535,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -66646,7 +66646,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -66757,7 +66757,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -66868,7 +66868,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -66979,7 +66979,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -67090,7 +67090,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -67201,7 +67201,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -67312,7 +67312,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -67423,7 +67423,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -67534,7 +67534,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -67645,7 +67645,7 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -67756,7 +67756,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -67867,7 +67867,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -68055,7 +68055,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>comp-end-date</t>
+          <t>comp-start-date</t>
         </is>
       </c>
     </row>
@@ -68166,7 +68166,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -68277,7 +68277,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -68499,7 +68499,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -68610,7 +68610,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -68721,7 +68721,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -68832,7 +68832,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -68943,7 +68943,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -69054,7 +69054,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -69165,7 +69165,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -69276,7 +69276,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -69387,7 +69387,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -69498,7 +69498,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -69609,7 +69609,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -69720,7 +69720,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -69831,7 +69831,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -69942,7 +69942,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -70053,7 +70053,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -70164,7 +70164,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -70275,7 +70275,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -70386,7 +70386,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -70497,7 +70497,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -70608,7 +70608,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
@@ -70719,7 +70719,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
